--- a/data/pca/factorExposure/factorExposure_2012-08-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-08-20.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002517049078014237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.00175752259596623</v>
+      </c>
+      <c r="C2">
+        <v>0.02902760168042566</v>
+      </c>
+      <c r="D2">
+        <v>-0.003543497315894194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0002640511874533867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006583595707899444</v>
+      </c>
+      <c r="C4">
+        <v>0.08389666758613601</v>
+      </c>
+      <c r="D4">
+        <v>-0.06539091673920096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.005544474393379721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01480349019808902</v>
+      </c>
+      <c r="C6">
+        <v>0.1182847546235613</v>
+      </c>
+      <c r="D6">
+        <v>-0.02010127886702748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0006849153440336401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004971568810740601</v>
+      </c>
+      <c r="C7">
+        <v>0.05907681414798476</v>
+      </c>
+      <c r="D7">
+        <v>-0.03077620080053005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0006404312369141232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.004913847200901746</v>
+      </c>
+      <c r="C8">
+        <v>0.03601756907037537</v>
+      </c>
+      <c r="D8">
+        <v>-0.03911724570710384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0006577321263579294</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005528922365257486</v>
+      </c>
+      <c r="C9">
+        <v>0.07235779444251068</v>
+      </c>
+      <c r="D9">
+        <v>-0.07153406914590299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0007941039823727327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002082831918744579</v>
+      </c>
+      <c r="C10">
+        <v>0.05237020026919716</v>
+      </c>
+      <c r="D10">
+        <v>0.1856522375332631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.0007454920876388265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.006051294438878753</v>
+      </c>
+      <c r="C11">
+        <v>0.08089913547251533</v>
+      </c>
+      <c r="D11">
+        <v>-0.06644503466453866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006868490424118635</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004497140149858435</v>
+      </c>
+      <c r="C12">
+        <v>0.06504780415638607</v>
+      </c>
+      <c r="D12">
+        <v>-0.05027982017667922</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.00225188589799709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008980873035588992</v>
+      </c>
+      <c r="C13">
+        <v>0.07069110348724163</v>
+      </c>
+      <c r="D13">
+        <v>-0.06027488381096383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001657210409415737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008562464619383746</v>
+      </c>
+      <c r="C14">
+        <v>0.04354807490267683</v>
+      </c>
+      <c r="D14">
+        <v>-0.0105531217457709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001684061851303577</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005981909298821832</v>
+      </c>
+      <c r="C15">
+        <v>0.04078053922980572</v>
+      </c>
+      <c r="D15">
+        <v>-0.02716663440359011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0002194585111926585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005406531363498077</v>
+      </c>
+      <c r="C16">
+        <v>0.06490448686341542</v>
+      </c>
+      <c r="D16">
+        <v>-0.05842158711311506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002591669275998517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008718460868455073</v>
+      </c>
+      <c r="C20">
+        <v>0.064493985893305</v>
+      </c>
+      <c r="D20">
+        <v>-0.05011500813185862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005544191617213983</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.00936467654290953</v>
+      </c>
+      <c r="C21">
+        <v>0.02039042087458086</v>
+      </c>
+      <c r="D21">
+        <v>-0.03996835445020844</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02047378851180639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007761004161693575</v>
+      </c>
+      <c r="C22">
+        <v>0.08745082950501107</v>
+      </c>
+      <c r="D22">
+        <v>-0.1268070842496577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.02013695096323197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007468301578263876</v>
+      </c>
+      <c r="C23">
+        <v>0.08785936558341559</v>
+      </c>
+      <c r="D23">
+        <v>-0.1279254004124797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001209040823773619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005991600959803898</v>
+      </c>
+      <c r="C24">
+        <v>0.07737839941288217</v>
+      </c>
+      <c r="D24">
+        <v>-0.06758164369490959</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.002859779087430165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003490728885987879</v>
+      </c>
+      <c r="C25">
+        <v>0.07845414894296465</v>
+      </c>
+      <c r="D25">
+        <v>-0.0651337810301487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001303771088918338</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.00358452437345934</v>
+      </c>
+      <c r="C26">
+        <v>0.03988993599048075</v>
+      </c>
+      <c r="D26">
+        <v>-0.02065741752298837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006708711553773199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002227525870542358</v>
+      </c>
+      <c r="C28">
+        <v>0.1024404885912353</v>
+      </c>
+      <c r="D28">
+        <v>0.3267700332383821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.000413793634040515</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003440190000067864</v>
+      </c>
+      <c r="C29">
+        <v>0.04734069010376226</v>
+      </c>
+      <c r="D29">
+        <v>-0.01058116730003691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.002886892977750814</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009438772159512152</v>
+      </c>
+      <c r="C30">
+        <v>0.1415947356067088</v>
+      </c>
+      <c r="D30">
+        <v>-0.1074669952732366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001898636254255288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006187105610002216</v>
+      </c>
+      <c r="C31">
+        <v>0.04406802461959599</v>
+      </c>
+      <c r="D31">
+        <v>-0.0298860600957464</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0002206164811839688</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004378171267980014</v>
+      </c>
+      <c r="C32">
+        <v>0.0388857878381954</v>
+      </c>
+      <c r="D32">
+        <v>-0.01882344764536701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.0001951405537867619</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008835562394166501</v>
+      </c>
+      <c r="C33">
+        <v>0.09062147848276327</v>
+      </c>
+      <c r="D33">
+        <v>-0.06257361576576474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001028623289784402</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004498683068678747</v>
+      </c>
+      <c r="C34">
+        <v>0.05791536602642625</v>
+      </c>
+      <c r="D34">
+        <v>-0.05831732838848596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002042157577180988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005201206612597496</v>
+      </c>
+      <c r="C35">
+        <v>0.04080388586768112</v>
+      </c>
+      <c r="D35">
+        <v>-0.01349337167880841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004517139065085588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001439146593677459</v>
+      </c>
+      <c r="C36">
+        <v>0.0254630705522554</v>
+      </c>
+      <c r="D36">
+        <v>-0.02109622170989056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002589316922374966</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008899315391455592</v>
+      </c>
+      <c r="C38">
+        <v>0.04101685972899621</v>
+      </c>
+      <c r="D38">
+        <v>-0.01353203195019158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.0113922154930393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.00181201380365856</v>
+      </c>
+      <c r="C39">
+        <v>0.1125376022152033</v>
+      </c>
+      <c r="D39">
+        <v>-0.08243210244856929</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.004106505085385332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002726555432682415</v>
+      </c>
+      <c r="C40">
+        <v>0.0914084346694074</v>
+      </c>
+      <c r="D40">
+        <v>-0.01736157989696542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.00244387422712527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007618100211567444</v>
+      </c>
+      <c r="C41">
+        <v>0.04128854203567343</v>
+      </c>
+      <c r="D41">
+        <v>-0.04093396315170011</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001938685752710455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004000719174589763</v>
+      </c>
+      <c r="C43">
+        <v>0.05429790289458371</v>
+      </c>
+      <c r="D43">
+        <v>-0.0270120443429204</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00798139119757014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.001811866179160827</v>
+      </c>
+      <c r="C44">
+        <v>0.1047633757961366</v>
+      </c>
+      <c r="D44">
+        <v>-0.06725088012974113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001462239999902828</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001445767395322848</v>
+      </c>
+      <c r="C46">
+        <v>0.03295587269923501</v>
+      </c>
+      <c r="D46">
+        <v>-0.03227857746038347</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001760923833561745</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002819873811561251</v>
+      </c>
+      <c r="C47">
+        <v>0.03526404237275058</v>
+      </c>
+      <c r="D47">
+        <v>-0.02139225177524663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004654630018001127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007605001372194057</v>
+      </c>
+      <c r="C48">
+        <v>0.03361245175113954</v>
+      </c>
+      <c r="D48">
+        <v>-0.02851528965123063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.005017255120278455</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01775702083165941</v>
+      </c>
+      <c r="C49">
+        <v>0.1861874910253973</v>
+      </c>
+      <c r="D49">
+        <v>-0.01067987123767908</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0002927306229597744</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.004036207156822262</v>
+      </c>
+      <c r="C50">
+        <v>0.04264081734866248</v>
+      </c>
+      <c r="D50">
+        <v>-0.03843869539908204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0001341366587341385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.003942591667382859</v>
+      </c>
+      <c r="C51">
+        <v>0.02663215607605962</v>
+      </c>
+      <c r="D51">
+        <v>-0.0255416073189663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008363209625080203</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02155457647464398</v>
+      </c>
+      <c r="C53">
+        <v>0.172003974639224</v>
+      </c>
+      <c r="D53">
+        <v>-0.01904716107353254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003284031671282515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.00943577071327212</v>
+      </c>
+      <c r="C54">
+        <v>0.05698164555208039</v>
+      </c>
+      <c r="D54">
+        <v>-0.03952770867943177</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001840371366485681</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.01013661745455193</v>
+      </c>
+      <c r="C55">
+        <v>0.1088283926073772</v>
+      </c>
+      <c r="D55">
+        <v>-0.03448015355901445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.00907815809767574</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02146618459134345</v>
+      </c>
+      <c r="C56">
+        <v>0.1747487495984423</v>
+      </c>
+      <c r="D56">
+        <v>-0.01322510779828795</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.0006960599836581976</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0162133868887736</v>
+      </c>
+      <c r="C58">
+        <v>0.1060999230372722</v>
+      </c>
+      <c r="D58">
+        <v>-0.06122942432643982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002417077838989046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009549902629850745</v>
+      </c>
+      <c r="C59">
+        <v>0.1673310260482125</v>
+      </c>
+      <c r="D59">
+        <v>0.3471810959054399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008515498160218023</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02637079959456502</v>
+      </c>
+      <c r="C60">
+        <v>0.2235492718900866</v>
+      </c>
+      <c r="D60">
+        <v>-0.016609213026163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01018870198852886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002046894439229111</v>
+      </c>
+      <c r="C61">
+        <v>0.09422482038785833</v>
+      </c>
+      <c r="D61">
+        <v>-0.05870645328485799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1496132566375125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1529308320783477</v>
+      </c>
+      <c r="C62">
+        <v>0.1017239734268131</v>
+      </c>
+      <c r="D62">
+        <v>-0.01796134781176278</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.001086069076883246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00647944433846838</v>
+      </c>
+      <c r="C63">
+        <v>0.05372601522337536</v>
+      </c>
+      <c r="D63">
+        <v>-0.0324277037266802</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.01038556257986127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01694042714244234</v>
+      </c>
+      <c r="C64">
+        <v>0.1065725227861051</v>
+      </c>
+      <c r="D64">
+        <v>-0.05245501234345303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.00838622035996099</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01770026293784547</v>
+      </c>
+      <c r="C65">
+        <v>0.1203542091755336</v>
+      </c>
+      <c r="D65">
+        <v>-0.02339542949171839</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001485220075399948</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01287794614873717</v>
+      </c>
+      <c r="C66">
+        <v>0.1606818844350733</v>
+      </c>
+      <c r="D66">
+        <v>-0.113766858523227</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005818725713270866</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01536423938103448</v>
+      </c>
+      <c r="C67">
+        <v>0.07354132163754049</v>
+      </c>
+      <c r="D67">
+        <v>-0.02541108152098502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004394839192257994</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0002357108994262643</v>
+      </c>
+      <c r="C68">
+        <v>0.08427689335392166</v>
+      </c>
+      <c r="D68">
+        <v>0.259200865357275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.0004108264574828217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006090299699756094</v>
+      </c>
+      <c r="C69">
+        <v>0.0520679528779413</v>
+      </c>
+      <c r="D69">
+        <v>-0.03730153257511256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001473672609621737</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.00255704798207419</v>
+      </c>
+      <c r="C70">
+        <v>0.008483624831459719</v>
+      </c>
+      <c r="D70">
+        <v>0.001757514743140874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.0005973158414532036</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004785650429632695</v>
+      </c>
+      <c r="C71">
+        <v>0.08847263811985762</v>
+      </c>
+      <c r="D71">
+        <v>0.3014944662888588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005321522146421656</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01846298703322858</v>
+      </c>
+      <c r="C72">
+        <v>0.1587513048494066</v>
+      </c>
+      <c r="D72">
+        <v>-0.007285524042540917</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.00942911444517157</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03125587631822033</v>
+      </c>
+      <c r="C73">
+        <v>0.28201637089524</v>
+      </c>
+      <c r="D73">
+        <v>-0.05557094153967032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005414396582882714</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002017173643850066</v>
+      </c>
+      <c r="C74">
+        <v>0.1033019600422529</v>
+      </c>
+      <c r="D74">
+        <v>-0.03150835569747251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.000502008334585236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.0118700453576307</v>
+      </c>
+      <c r="C75">
+        <v>0.1202852373609977</v>
+      </c>
+      <c r="D75">
+        <v>-0.02744532862929336</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01083012780432433</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02188816088678304</v>
+      </c>
+      <c r="C76">
+        <v>0.1458665341702373</v>
+      </c>
+      <c r="D76">
+        <v>-0.05612983739699313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.006469401601429262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02128951931228715</v>
+      </c>
+      <c r="C77">
+        <v>0.1105353349798741</v>
+      </c>
+      <c r="D77">
+        <v>-0.04548584653923805</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.004274556183358811</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0142464811646206</v>
+      </c>
+      <c r="C78">
+        <v>0.0989401821448942</v>
+      </c>
+      <c r="D78">
+        <v>-0.08044504083786484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02747592270992499</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03923239938151643</v>
+      </c>
+      <c r="C79">
+        <v>0.1574805240398272</v>
+      </c>
+      <c r="D79">
+        <v>-0.02954256855502102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006340467981920048</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009516543975558961</v>
+      </c>
+      <c r="C80">
+        <v>0.04012725560187483</v>
+      </c>
+      <c r="D80">
+        <v>-0.03214450250471574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.00522819958990127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01631986836261907</v>
+      </c>
+      <c r="C81">
+        <v>0.1309933473124839</v>
+      </c>
+      <c r="D81">
+        <v>-0.03742228145415856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007779900640092335</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01966124882037342</v>
+      </c>
+      <c r="C82">
+        <v>0.1367204342685678</v>
+      </c>
+      <c r="D82">
+        <v>-0.0357111736442294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.003235394096818819</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01202326073829453</v>
+      </c>
+      <c r="C83">
+        <v>0.06476356925058614</v>
+      </c>
+      <c r="D83">
+        <v>-0.04430155508014086</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004276381845355517</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006663201799518575</v>
+      </c>
+      <c r="C84">
+        <v>0.03509774056220818</v>
+      </c>
+      <c r="D84">
+        <v>-0.01339690596706376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01892390355209924</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02903813760973741</v>
+      </c>
+      <c r="C85">
+        <v>0.1235544285788336</v>
+      </c>
+      <c r="D85">
+        <v>-0.03941997452307353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002662548084574221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003792372948298371</v>
+      </c>
+      <c r="C86">
+        <v>0.05101905510320855</v>
+      </c>
+      <c r="D86">
+        <v>-0.02432173338715637</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.001634137283937095</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01202343388504042</v>
+      </c>
+      <c r="C87">
+        <v>0.1289109190704266</v>
+      </c>
+      <c r="D87">
+        <v>-0.07247082612053379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.00858945332536006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002956813627045256</v>
+      </c>
+      <c r="C88">
+        <v>0.06374118915769357</v>
+      </c>
+      <c r="D88">
+        <v>-0.02880888734299623</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01113010237397197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00281571003430008</v>
+      </c>
+      <c r="C89">
+        <v>0.1339948715964848</v>
+      </c>
+      <c r="D89">
+        <v>0.3187254387183351</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.001898491997029359</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005646135259676561</v>
+      </c>
+      <c r="C90">
+        <v>0.1154319209707314</v>
+      </c>
+      <c r="D90">
+        <v>0.3131570944679959</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002500462872245696</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01120339899565731</v>
+      </c>
+      <c r="C91">
+        <v>0.09917375011894368</v>
+      </c>
+      <c r="D91">
+        <v>-0.02917307607015326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005448786377478899</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0001042741094295657</v>
+      </c>
+      <c r="C92">
+        <v>0.1281659640087506</v>
+      </c>
+      <c r="D92">
+        <v>0.3246447240585504</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.001460463939432032</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.003391845069820679</v>
+      </c>
+      <c r="C93">
+        <v>0.1032988212935065</v>
+      </c>
+      <c r="D93">
+        <v>0.300665813377119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.01011159806617726</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02239362611190429</v>
+      </c>
+      <c r="C94">
+        <v>0.140005460321085</v>
+      </c>
+      <c r="D94">
+        <v>-0.05511523199871837</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006703246552193789</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01591888717797885</v>
+      </c>
+      <c r="C95">
+        <v>0.1203377224533547</v>
+      </c>
+      <c r="D95">
+        <v>-0.0684627895571288</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.01697888278473578</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03725915249658465</v>
+      </c>
+      <c r="C97">
+        <v>0.2251837060301328</v>
+      </c>
+      <c r="D97">
+        <v>-6.917852684086825e-06</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01202074647517183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03958091425621914</v>
+      </c>
+      <c r="C98">
+        <v>0.2613053003608738</v>
+      </c>
+      <c r="D98">
+        <v>-0.03027549075207786</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9865712933430667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9806045590584244</v>
+      </c>
+      <c r="C99">
+        <v>-0.1214952110037048</v>
+      </c>
+      <c r="D99">
+        <v>0.02431684788655203</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0004391722903197247</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003431188602214102</v>
+      </c>
+      <c r="C101">
+        <v>0.04752417703795283</v>
+      </c>
+      <c r="D101">
+        <v>-0.01124667544840017</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
